--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.4769115238444445</v>
+        <v>0.402978812176</v>
       </c>
       <c r="R2">
-        <v>4.2922037146</v>
+        <v>3.626809309584</v>
       </c>
       <c r="S2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="T2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
         <v>2.477122590186222</v>
@@ -638,10 +638,10 @@
         <v>22.294103311676</v>
       </c>
       <c r="S3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="T3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>1.879497097145778</v>
+        <v>2.423359948159111</v>
       </c>
       <c r="R4">
-        <v>16.915473874312</v>
+        <v>21.810239533432</v>
       </c>
       <c r="S4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="T4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>2.965786361574667</v>
+        <v>1.487553219984667</v>
       </c>
       <c r="R5">
-        <v>17.794718169448</v>
+        <v>8.925319319908001</v>
       </c>
       <c r="S5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="T5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>1.248293143634667</v>
+        <v>2.880979448309778</v>
       </c>
       <c r="R6">
-        <v>11.234638292712</v>
+        <v>25.92881503478801</v>
       </c>
       <c r="S6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="T6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
     </row>
   </sheetData>
